--- a/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T09:02:45+00:00</t>
+    <t>2023-07-27T15:12:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1194,6 +1194,102 @@
     <t>A facility in which study activities are conducted.</t>
   </si>
   <si>
+    <t>ResearchStudy.site.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.extension:eclaire-site-contact-name</t>
+  </si>
+  <si>
+    <t>eclaire-site-contact-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-site-contact-name}
+</t>
+  </si>
+  <si>
+    <t>Nom du contact spécifique au site de recrutement</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact spécifique au site de recrutement</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t>ele-1
+ref-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>ResearchStudy.reasonStopped</t>
   </si>
   <si>
@@ -1328,6 +1424,15 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-site-contact-name</t>
+  </si>
+  <si>
+    <t>ECLAIRESiteContactName</t>
+  </si>
+  <si>
+    <t>element:ResearchStudy.site.telecom</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2743,6 +2848,166 @@
         <v>35</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2750,7 +3015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK118"/>
+  <dimension ref="A1:AK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2760,7 +3025,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="41.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -13576,20 +13841,18 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
         <v>38</v>
@@ -13614,13 +13877,13 @@
         <v>38</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>38</v>
@@ -13638,7 +13901,7 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -13647,10 +13910,10 @@
         <v>44</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -13658,14 +13921,14 @@
         <v>121</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13684,16 +13947,16 @@
         <v>38</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -13731,19 +13994,19 @@
         <v>38</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE105" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -13755,7 +14018,7 @@
         <v>42</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106">
@@ -13763,12 +14026,14 @@
         <v>121</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="D106" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="E106" t="s" s="2">
         <v>38</v>
       </c>
@@ -13777,7 +14042,7 @@
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>38</v>
@@ -13789,13 +14054,13 @@
         <v>38</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -13846,7 +14111,7 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>387</v>
+        <v>55</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
@@ -13858,7 +14123,7 @@
         <v>42</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -13866,10 +14131,10 @@
         <v>121</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13889,18 +14154,20 @@
         <v>38</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>38</v>
@@ -13949,7 +14216,7 @@
         <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>48</v>
+        <v>388</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
@@ -13958,10 +14225,10 @@
         <v>44</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108">
@@ -13969,21 +14236,21 @@
         <v>121</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>38</v>
@@ -13992,19 +14259,19 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -14030,43 +14297,43 @@
         <v>38</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="AB108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>55</v>
+        <v>396</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
@@ -14074,46 +14341,44 @@
         <v>121</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>38</v>
       </c>
@@ -14161,19 +14426,19 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110">
@@ -14181,10 +14446,10 @@
         <v>121</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14192,7 +14457,7 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>44</v>
@@ -14204,19 +14469,19 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -14266,10 +14531,10 @@
         <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>44</v>
@@ -14286,10 +14551,10 @@
         <v>121</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14309,16 +14574,16 @@
         <v>38</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>90</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>295</v>
@@ -14347,13 +14612,13 @@
         <v>38</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>38</v>
@@ -14371,7 +14636,7 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
@@ -14391,10 +14656,10 @@
         <v>121</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14405,7 +14670,7 @@
         <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -14417,16 +14682,16 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>275</v>
+        <v>416</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14476,13 +14741,13 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14496,10 +14761,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14522,13 +14787,13 @@
         <v>38</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -14579,7 +14844,7 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
@@ -14599,10 +14864,10 @@
         <v>121</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14702,10 +14967,10 @@
         <v>121</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14807,14 +15072,14 @@
         <v>121</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
@@ -14836,10 +15101,10 @@
         <v>50</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>78</v>
@@ -14894,7 +15159,7 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>39</v>
@@ -14914,10 +15179,10 @@
         <v>121</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14925,7 +15190,7 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>44</v>
@@ -14943,10 +15208,10 @@
         <v>45</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>275</v>
@@ -14999,10 +15264,10 @@
         <v>38</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>44</v>
@@ -15019,10 +15284,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15048,10 +15313,10 @@
         <v>90</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>295</v>
@@ -15080,13 +15345,13 @@
         <v>38</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>420</v>
+        <v>38</v>
       </c>
       <c r="AB118" t="s" s="2">
         <v>38</v>
@@ -15104,7 +15369,7 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
@@ -15116,6 +15381,1256 @@
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Q123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R130" s="2"/>
+      <c r="S130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK130" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T16:32:50+00:00</t>
+    <t>2023-07-27T17:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1744,7 +1744,7 @@
     <t>ECLAIRESiteContactName</t>
   </si>
   <si>
-    <t>element:location.telecom</t>
+    <t>element:Location.telecom</t>
   </si>
 </sst>
 </file>

--- a/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T07:09:41+00:00</t>
+    <t>2023-07-28T07:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1846,6 +1846,10 @@
   </si>
   <si>
     <t>element:Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
   </si>
 </sst>
 </file>
@@ -21337,7 +21341,7 @@
         <v>38</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>45</v>
+        <v>590</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>64</v>
